--- a/CooperDi/6_lesson/kaurov-it_tutorial.xlsx
+++ b/CooperDi/6_lesson/kaurov-it_tutorial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\CooperDi\6_lesson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ABFD8C-BD5E-4FB0-9876-23C43BAE2E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8EC884-8EC3-4247-B04A-0DADE3F4B3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>Ответ 6, 16, 17</t>
   </si>
   <si>
-    <t>*В задании просят минимальный S?</t>
-  </si>
-  <si>
     <t>21)</t>
   </si>
   <si>
@@ -335,12 +332,15 @@
   <si>
     <t>2 Кучи!!!!</t>
   </si>
+  <si>
+    <t>Тут проблема в Формулировке. На экзамене будет написано! Мин или Макс нужен</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,15 +380,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -514,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -530,7 +521,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
@@ -1996,8 +1986,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>108300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Рукописный ввод 2">
@@ -2016,7 +2006,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Рукописный ввод 2">
@@ -2061,8 +2051,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>49560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Рукописный ввод 3">
@@ -2081,7 +2071,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Рукописный ввод 3">
@@ -2126,8 +2116,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Рукописный ввод 4">
@@ -2146,7 +2136,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Рукописный ввод 4">
@@ -2397,7 +2387,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">162 1,'0'4,"0"9,0 6,-4 8,-1 3,0 1,1 2,-3 0,0-2,1-6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="451.16">277 47,'0'4,"0"5,-4 5,-1 4,-4 3,0 2,1 0,-2-2,2-3,1 1,2 1,-2 0,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1181.85">1 47,'484'0,"-464"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1181.84">1 47,'484'0,"-464"0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2751,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="K1:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,12 +3160,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCD5FEB-4550-4E2C-B1F0-C28F987E1B3E}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3191,9 +3182,6 @@
       <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J4" s="1" t="s">
@@ -3217,6 +3205,9 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="K8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3399,31 +3390,31 @@
       <c r="K27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="15" t="s">
-        <v>35</v>
+      <c r="M27" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="11:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="11:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3464,7 +3455,7 @@
         <v>54</v>
       </c>
       <c r="R36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="11:18" x14ac:dyDescent="0.25">
@@ -3493,7 +3484,7 @@
     </row>
     <row r="39" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="9">
@@ -3962,7 +3953,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
@@ -3970,7 +3961,7 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
+      <c r="B3" s="15"/>
       <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3987,15 +3978,15 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -4034,30 +4025,30 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="11:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="11:15" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="11:15" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="11:15" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="11:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -4128,35 +4119,35 @@
     </row>
     <row r="29" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K30" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="10:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
       <c r="L36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
       <c r="L37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="10:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4176,7 +4167,7 @@
         <v>5</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="10:17" x14ac:dyDescent="0.25">
@@ -4304,7 +4295,7 @@
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K49" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4438,10 +4429,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E52F587-F6F9-41C7-B4A9-9042A67C5117}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4451,13 +4445,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4480,25 +4474,25 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -4514,12 +4508,12 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4535,8 +4529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FB50BC-7A6F-48CF-B8F2-4A378650076C}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4546,7 +4540,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4563,31 +4557,31 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4636,20 +4630,20 @@
     </row>
     <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="10:13" x14ac:dyDescent="0.25">
@@ -4700,7 +4694,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4710,10 +4704,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4722,28 +4716,28 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
